--- a/BAfc_claude_code/figures/figure_1/figure_1_data.xlsx
+++ b/BAfc_claude_code/figures/figure_1/figure_1_data.xlsx
@@ -11,18 +11,19 @@
     <sheet name="PanelE_FiringRate" sheetId="3" r:id="rId5"/>
     <sheet name="PanelF_BurstIndex" sheetId="4" r:id="rId6"/>
     <sheet name="CrossRegion_FiringRate" sheetId="5" r:id="rId7"/>
+    <sheet name="CrossRegion_BurstIndex" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="175" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="298" uniqueCount="93">
   <si>
     <t>FIGURE 1: SAMPLE SIZES</t>
   </si>
   <si>
-    <t>Generated: 03-Dec-2025 13:58:06</t>
+    <t>Generated: 08-Dec-2025 13:55:43</t>
   </si>
   <si>
     <t>Number of animals (N)</t>
@@ -109,7 +110,10 @@
     <t>5.2%</t>
   </si>
   <si>
-    <t>PANEL D: SPIKE FEATURES (LA + BA)</t>
+    <t>PANEL D: SPIKE FEATURES</t>
+  </si>
+  <si>
+    <t>=== LA + BA COMBINED ===</t>
   </si>
   <si>
     <t>Sample sizes</t>
@@ -142,6 +146,12 @@
     <t>Wilcoxon rank-sum test (PN vs IN firing rate)</t>
   </si>
   <si>
+    <t>=== LA ONLY ===</t>
+  </si>
+  <si>
+    <t>=== BA ONLY ===</t>
+  </si>
+  <si>
     <t>n</t>
   </si>
   <si>
@@ -202,9 +212,15 @@
     <t>LA PNs</t>
   </si>
   <si>
+    <t>LA INs</t>
+  </si>
+  <si>
     <t>BA PNs</t>
   </si>
   <si>
+    <t>BA INs</t>
+  </si>
+  <si>
     <t>AStria</t>
   </si>
   <si>
@@ -223,25 +239,64 @@
     <t>Comparison</t>
   </si>
   <si>
+    <t>LA_PN vs LA_IN</t>
+  </si>
+  <si>
     <t>LA_PN vs BA_PN</t>
   </si>
   <si>
+    <t>LA_PN vs BA_IN</t>
+  </si>
+  <si>
     <t>LA_PN vs AStria</t>
   </si>
   <si>
     <t>LA_PN vs CeA</t>
   </si>
   <si>
+    <t>LA_IN vs BA_PN</t>
+  </si>
+  <si>
+    <t>LA_IN vs BA_IN</t>
+  </si>
+  <si>
+    <t>LA_IN vs AStria</t>
+  </si>
+  <si>
+    <t>LA_IN vs CeA</t>
+  </si>
+  <si>
+    <t>BA_PN vs BA_IN</t>
+  </si>
+  <si>
     <t>BA_PN vs AStria</t>
   </si>
   <si>
     <t>BA_PN vs CeA</t>
   </si>
   <si>
+    <t>BA_IN vs AStria</t>
+  </si>
+  <si>
+    <t>BA_IN vs CeA</t>
+  </si>
+  <si>
     <t>AStria vs CeA</t>
   </si>
   <si>
     <t>Significance</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>CROSS-REGION COMPARISONS: BURST INDEX</t>
+  </si>
+  <si>
+    <t>Sample sizes (excluding NaN)</t>
+  </si>
+  <si>
+    <t>Kruskal-Wallis Test: Burst index across regions</t>
   </si>
 </sst>
 </file>
@@ -510,7 +565,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -546,9 +601,7 @@
       <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
+      <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
@@ -558,8 +611,8 @@
       <c r="A4" t="s">
         <v>32</v>
       </c>
-      <c r="B4">
-        <v>472</v>
+      <c r="B4" t="s">
+        <v>44</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -571,7 +624,7 @@
         <v>33</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>472</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -583,7 +636,7 @@
         <v>34</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -591,49 +644,41 @@
       <c r="F6"/>
     </row>
     <row r="7">
-      <c r="A7"/>
-      <c r="B7"/>
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
+      <c r="A8"/>
       <c r="B8"/>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <v>472</v>
-      </c>
-      <c r="C9">
-        <v>0.61695018458889372</v>
-      </c>
-      <c r="D9">
-        <v>0.0074423445447510603</v>
-      </c>
-      <c r="E9">
-        <v>0.68684759916492921</v>
-      </c>
-      <c r="F9">
-        <v>0.16168911025902433</v>
+        <v>36</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10">
@@ -641,33 +686,43 @@
         <v>33</v>
       </c>
       <c r="B10">
+        <v>472</v>
+      </c>
+      <c r="C10">
+        <v>0.61695018458889372</v>
+      </c>
+      <c r="D10">
+        <v>0.0074423445447510603</v>
+      </c>
+      <c r="E10">
+        <v>0.68684759916492921</v>
+      </c>
+      <c r="F10">
+        <v>0.16168911025902433</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
         <v>40</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>0.29836986778009855</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>0.0079699213672966181</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>0.29763395963813599</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>0.050406208586201443</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-    </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
+      <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
@@ -678,9 +733,7 @@
       <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="B13">
-        <v>9.1281550648925975</v>
-      </c>
+      <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
@@ -691,59 +744,51 @@
         <v>38</v>
       </c>
       <c r="B14">
-        <v>6.9676528972069851e-20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
+        <v>9.1281550648925975</v>
+      </c>
+      <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
     </row>
     <row r="15">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>6.9676528972069851e-20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
+      <c r="A16"/>
       <c r="B16"/>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" t="s">
-        <v>46</v>
-      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17">
-        <v>472</v>
-      </c>
-      <c r="C17">
-        <v>3.7667542052564893</v>
-      </c>
-      <c r="D17">
-        <v>0.1790032004253283</v>
-      </c>
-      <c r="E17">
-        <v>2.5257979199976415</v>
-      </c>
-      <c r="F17">
-        <v>3.8889449468853168</v>
+        <v>40</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18">
@@ -751,33 +796,43 @@
         <v>33</v>
       </c>
       <c r="B18">
+        <v>472</v>
+      </c>
+      <c r="C18">
+        <v>3.7667542052564893</v>
+      </c>
+      <c r="D18">
+        <v>0.1790032004253283</v>
+      </c>
+      <c r="E18">
+        <v>2.5257979199976415</v>
+      </c>
+      <c r="F18">
+        <v>3.8889449468853168</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
         <v>40</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>19.110375841704283</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>1.2154191096462892</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>15.975991227297135</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>7.6869853963524051</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-    </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
+      <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -786,11 +841,9 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21">
-        <v>-10.047322256216807</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
@@ -801,14 +854,574 @@
         <v>38</v>
       </c>
       <c r="B22">
-        <v>9.4397599720195873e-24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
+        <v>-10.047322256216807</v>
+      </c>
+      <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23">
+        <v>9.4397599720195873e-24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <v>276</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
+        <v>17</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+    </row>
+    <row r="29">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>276</v>
+      </c>
+      <c r="C31">
+        <v>0.61260501447258475</v>
+      </c>
+      <c r="D31">
+        <v>0.0097196134467267808</v>
+      </c>
+      <c r="E31">
+        <v>0.67212943632568067</v>
+      </c>
+      <c r="F31">
+        <v>0.16147434598984015</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>17</v>
+      </c>
+      <c r="C32">
+        <v>0.31552662818781058</v>
+      </c>
+      <c r="D32">
+        <v>0.0085442343337997998</v>
+      </c>
+      <c r="E32">
+        <v>0.3205288796103003</v>
+      </c>
+      <c r="F32">
+        <v>0.035228780648285517</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>5.9717929678896491</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>2.3466020241286479e-09</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+    </row>
+    <row r="37">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38"/>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39">
+        <v>276</v>
+      </c>
+      <c r="C39">
+        <v>3.3273744064399962</v>
+      </c>
+      <c r="D39">
+        <v>0.20191831035908195</v>
+      </c>
+      <c r="E39">
+        <v>2.4891239829539371</v>
+      </c>
+      <c r="F39">
+        <v>3.354518910377696</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40">
+        <v>17</v>
+      </c>
+      <c r="C40">
+        <v>16.575973439190051</v>
+      </c>
+      <c r="D40">
+        <v>1.6356628770071222</v>
+      </c>
+      <c r="E40">
+        <v>14.552257359559629</v>
+      </c>
+      <c r="F40">
+        <v>6.7440108098020328</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43">
+        <v>-6.7025775568298087</v>
+      </c>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44">
+        <v>2.0477482513098703e-11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+    </row>
+    <row r="45">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48">
+        <v>196</v>
+      </c>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49">
+        <v>23</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+    </row>
+    <row r="50">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51"/>
+      <c r="C51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52">
+        <v>196</v>
+      </c>
+      <c r="C52">
+        <v>0.62306889352818573</v>
+      </c>
+      <c r="D52">
+        <v>0.011586181193407629</v>
+      </c>
+      <c r="E52">
+        <v>0.69338900487126187</v>
+      </c>
+      <c r="F52">
+        <v>0.16220653670770682</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53">
+        <v>23</v>
+      </c>
+      <c r="C53">
+        <v>0.28568878400048514</v>
+      </c>
+      <c r="D53">
+        <v>0.011806319427051808</v>
+      </c>
+      <c r="E53">
+        <v>0.287821851078637</v>
+      </c>
+      <c r="F53">
+        <v>0.056621118882554423</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56">
+        <v>6.7803814541450409</v>
+      </c>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57">
+        <v>1.1985899183951591e-11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+    </row>
+    <row r="58">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59"/>
+      <c r="C59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" t="s">
+        <v>47</v>
+      </c>
+      <c r="E59" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60">
+        <v>196</v>
+      </c>
+      <c r="C60">
+        <v>4.3854726974674705</v>
+      </c>
+      <c r="D60">
+        <v>0.31945957623428878</v>
+      </c>
+      <c r="E60">
+        <v>2.7354531972869127</v>
+      </c>
+      <c r="F60">
+        <v>4.4724340672800427</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61">
+        <v>23</v>
+      </c>
+      <c r="C61">
+        <v>20.983629791388715</v>
+      </c>
+      <c r="D61">
+        <v>1.6555631176007182</v>
+      </c>
+      <c r="E61">
+        <v>19.006811922828561</v>
+      </c>
+      <c r="F61">
+        <v>7.9398017882234067</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64">
+        <v>-7.431735185542645</v>
+      </c>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65">
+        <v>1.0718221966979147e-13</v>
+      </c>
+      <c r="C65" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
     </row>
   </sheetData>
 </worksheet>
@@ -832,7 +1445,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -850,7 +1463,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -860,27 +1473,27 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
         <v>49</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>276</v>
@@ -900,7 +1513,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>17</v>
@@ -920,7 +1533,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -930,7 +1543,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <v>-6.7025775568298087</v>
@@ -942,13 +1555,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <v>2.0477482513098703e-11</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -964,7 +1577,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
@@ -974,27 +1587,27 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
         <v>49</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>196</v>
@@ -1014,7 +1627,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>23</v>
@@ -1034,7 +1647,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
@@ -1044,7 +1657,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>-7.431735185542645</v>
@@ -1056,13 +1669,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>1.0718221966979147e-13</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -1078,7 +1691,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
@@ -1088,22 +1701,22 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21">
@@ -1136,7 +1749,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
@@ -1146,22 +1759,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25">
@@ -1214,7 +1827,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -1232,7 +1845,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -1242,27 +1855,27 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
         <v>49</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>276</v>
@@ -1282,7 +1895,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>17</v>
@@ -1302,7 +1915,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -1312,7 +1925,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <v>-3.1243082403746052</v>
@@ -1324,13 +1937,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <v>0.0017822364728304191</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -1346,7 +1959,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
@@ -1356,27 +1969,27 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
         <v>49</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>196</v>
@@ -1396,7 +2009,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>23</v>
@@ -1416,7 +2029,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
@@ -1426,7 +2039,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>-0.033047470685460663</v>
@@ -1438,13 +2051,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>0.97363673216312818</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -1460,7 +2073,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
@@ -1470,22 +2083,22 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21">
@@ -1518,7 +2131,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
@@ -1528,22 +2141,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25">
@@ -1580,20 +2193,341 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.5703125" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+    </row>
+    <row r="2">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4">
+        <v>276</v>
+      </c>
+      <c r="C4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="C5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6">
+        <v>196</v>
+      </c>
+      <c r="C6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7">
+        <v>23</v>
+      </c>
+      <c r="C7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8">
+        <v>120</v>
+      </c>
+      <c r="C8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="C9"/>
+    </row>
+    <row r="10">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12">
+        <v>120.41233793123708</v>
+      </c>
+      <c r="C12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>2.5668050093153726e-24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18">
+        <v>7.6806394577744186e-10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19">
+        <v>0.73102398654342693</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20">
+        <v>2.8310687127941492e-14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21">
+        <v>0.74261955850737571</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22">
+        <v>0.032875224509134493</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23">
+        <v>7.2752934565656346e-08</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24">
+        <v>0.99999999995143174</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25">
+        <v>3.0413343687918371e-07</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26">
+        <v>8.22675261247241e-13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27">
+        <v>1.999733711954832e-11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28">
+        <v>0.99999999999474143</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29">
+        <v>0.0010067804114224366</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30">
+        <v>2.1840029784669923e-10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32">
+        <v>0.0014063456166624189</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="41.7109375" customWidth="true"/>
     <col min="2" max="2" width="15.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -1605,177 +2539,294 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B4">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B5">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="C5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B6">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="C6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C7"/>
     </row>
     <row r="8">
-      <c r="A8"/>
-      <c r="B8"/>
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8">
+        <v>120</v>
+      </c>
       <c r="C8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9"/>
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
       <c r="C9"/>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10">
-        <v>20.813841066112243</v>
-      </c>
+      <c r="A10"/>
+      <c r="B10"/>
       <c r="C10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B11"/>
       <c r="C11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="B12">
-        <v>0.00011507559977513795</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
+        <v>50.942430430092585</v>
+      </c>
+      <c r="C12"/>
     </row>
     <row r="13">
-      <c r="A13"/>
-      <c r="B13"/>
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
       <c r="C13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14"/>
-      <c r="C14"/>
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>8.886812235431038e-10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>74</v>
-      </c>
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16">
-        <v>0.37362839100773781</v>
-      </c>
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17">
-        <v>0.39413954262623263</v>
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B18">
-        <v>0.0069626267130370456</v>
+        <v>0.058863880784059353</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B19">
-        <v>0.99997494792636965</v>
+        <v>0.00011059896169973715</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B20">
-        <v>0.00016001994111325413</v>
+        <v>0.19238623968736379</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B21">
-        <v>0.00024552540581379567</v>
+        <v>0.92064527113049466</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22">
+        <v>0.34329014861050788</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23">
+        <v>0.98239425123179092</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24">
+        <v>0.99999564100421179</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25">
+        <v>0.011107474741635648</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26">
+        <v>0.0024905200558096308</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27">
+        <v>0.99999915869758393</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28">
+        <v>1.0792999127429148e-05</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29">
+        <v>2.6056398721441276e-05</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30">
+        <v>0.036944714638860066</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31">
+        <v>0.0081418717385894901</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32">
+        <v>0.99221632443831553</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
